--- a/biology/Botanique/Rhamnus_latifolia/Rhamnus_latifolia.xlsx
+++ b/biology/Botanique/Rhamnus_latifolia/Rhamnus_latifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frangula azorica, la Bourdaine des Açores,  est une espèce de plantes à fleurs de la famille des Rhamnaceae et du genre des Bourdaines. Elle est endémique des Açores et de Madère où elle pousse dans la laurisylve[2]. Son nom vernaculaire en portugais est sanguinho.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frangula azorica, la Bourdaine des Açores,  est une espèce de plantes à fleurs de la famille des Rhamnaceae et du genre des Bourdaines. Elle est endémique des Açores et de Madère où elle pousse dans la laurisylve. Son nom vernaculaire en portugais est sanguinho.
 </t>
         </is>
       </c>
